--- a/output/DetailQuestionAnalysis (22).xlsx
+++ b/output/DetailQuestionAnalysis (22).xlsx
@@ -875,19 +875,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>InCorrect</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>['ANS']</t>
+          <t>['Vomiting (often projectile) ', 'Increasing blood pressure', 'Bradycardia', 'Fixed and dilated pupils', 'Decorticate posturing']</t>
         </is>
       </c>
     </row>
@@ -2425,15 +2425,15 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>['ANS']</t>
+          <t>['Vomiting (often projectile) ', 'Increasing blood pressure', 'Bradycardia', 'Fixed and dilated pupils', 'Decorticate posturing']</t>
         </is>
       </c>
     </row>
@@ -3967,19 +3967,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>InCorrect</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>['ANS']</t>
+          <t>['Vomiting (often projectile) ', 'Increasing blood pressure', 'Bradycardia', 'Fixed and dilated pupils', 'Decorticate posturing']</t>
         </is>
       </c>
     </row>
@@ -5517,15 +5517,15 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>['ANS']</t>
+          <t>['Vomiting (often projectile) ', 'Increasing blood pressure', 'Bradycardia', 'Fixed and dilated pupils', 'Decorticate posturing']</t>
         </is>
       </c>
     </row>
@@ -7063,15 +7063,15 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>['ANS']</t>
+          <t>['Vomiting (often projectile) ', 'Increasing blood pressure', 'Bradycardia', 'Fixed and dilated pupils', 'Decorticate posturing']</t>
         </is>
       </c>
     </row>

--- a/output/DetailQuestionAnalysis (22).xlsx
+++ b/output/DetailQuestionAnalysis (22).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="111">
   <si>
     <t>Question Number</t>
   </si>
@@ -293,6 +293,12 @@
     <t>['Polydipsia']</t>
   </si>
   <si>
+    <t>In Correct</t>
+  </si>
+  <si>
+    <t>['Polyphagia']</t>
+  </si>
+  <si>
     <t>Based on D.W.'s "Pt reported Symptoms" and "2nd Clinic Visit Lab Values", which of the following diseases does D.W. have?</t>
   </si>
   <si>
@@ -330,9 +336,6 @@
   </si>
   <si>
     <t>['The client may have a GI obstruction.']</t>
-  </si>
-  <si>
-    <t>['Polyphagia']</t>
   </si>
   <si>
     <t>['Bradycardia ', 'Fixed and dilated pupils ', 'Vomiting (often projectile) ', 'Increasing blood pressure ', 'Decorticate posturing ']</t>
@@ -1070,10 +1073,10 @@
         <v>32</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F12" s="7">
         <v>0.6</v>
@@ -1097,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>37</v>
@@ -1775,17 +1778,17 @@
         <v>90</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="F38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
@@ -1793,13 +1796,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>12</v>
@@ -1812,7 +1815,7 @@
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
@@ -1820,13 +1823,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>12</v>
@@ -1839,7 +1842,7 @@
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
@@ -1847,13 +1850,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>12</v>
@@ -1866,7 +1869,7 @@
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2206,7 +2209,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>12</v>
@@ -2314,7 +2317,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>37</v>
@@ -2530,7 +2533,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>37</v>
@@ -2911,17 +2914,17 @@
         <v>90</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="F38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
@@ -2929,13 +2932,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>12</v>
@@ -2948,7 +2951,7 @@
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
@@ -2956,13 +2959,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>12</v>
@@ -2975,7 +2978,7 @@
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
@@ -2983,13 +2986,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>37</v>
@@ -3002,7 +3005,7 @@
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3024,12 +3027,12 @@
     <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="44.86214285714286" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="29.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
@@ -3342,10 +3345,10 @@
         <v>32</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F12" s="7">
         <v>0.8</v>
@@ -3450,7 +3453,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>37</v>
@@ -3504,7 +3507,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>37</v>
@@ -3531,7 +3534,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>37</v>
@@ -4044,20 +4047,20 @@
         <v>10</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F38" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
@@ -4065,13 +4068,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>12</v>
@@ -4084,7 +4087,7 @@
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
@@ -4092,13 +4095,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>12</v>
@@ -4111,7 +4114,7 @@
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
@@ -4119,13 +4122,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>12</v>
@@ -4138,7 +4141,7 @@
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4478,7 +4481,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>12</v>
@@ -4910,7 +4913,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>37</v>
@@ -5183,17 +5186,17 @@
         <v>90</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="F38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
@@ -5201,13 +5204,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>12</v>
@@ -5220,7 +5223,7 @@
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
@@ -5228,13 +5231,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>12</v>
@@ -5247,7 +5250,7 @@
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
@@ -5255,13 +5258,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>12</v>
@@ -5274,7 +5277,7 @@
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -6319,17 +6322,17 @@
         <v>90</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="F38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
@@ -6337,13 +6340,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>12</v>
@@ -6356,7 +6359,7 @@
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
@@ -6364,13 +6367,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>12</v>
@@ -6383,7 +6386,7 @@
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
@@ -6391,13 +6394,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>12</v>
@@ -6410,7 +6413,7 @@
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
